--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628785.537449587</v>
+        <v>2626533.45773838</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658561</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>56.1763952604619</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5914261276281</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>4.543542378764358</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>68.11015198958181</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>106.4735778903241</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>105.6685336178173</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091492</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>299.5630527897516</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.52918235370601</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.3755225607023</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6969570046935</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1340.243929312808</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>954.4556767145634</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3062.884240396966</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.821353053395</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2379.052697783281</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>916.2975690719576</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>724.6116848987839</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.2639694321828</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>310.0549803959803</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959803</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959803</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2659.195734198231</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2659.195734198231</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2285.729975937151</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
         <v>1520.445529061503</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400676</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703073</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,16 +7260,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462314</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409393435</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="15">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
@@ -26350,10 +26350,10 @@
         <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687968</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687965</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016117</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259804</v>
       </c>
       <c r="D6" t="n">
         <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>203745.6481138631</v>
+        <v>203710.9101884271</v>
       </c>
       <c r="F6" t="n">
-        <v>529158.1099212179</v>
+        <v>529123.3719957829</v>
       </c>
       <c r="G6" t="n">
-        <v>529158.109921218</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="H6" t="n">
-        <v>529158.1099212182</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="I6" t="n">
-        <v>529158.1099212182</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="J6" t="n">
-        <v>311626.9075239406</v>
+        <v>311592.1695985053</v>
       </c>
       <c r="K6" t="n">
-        <v>529158.109921218</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="L6" t="n">
-        <v>529158.109921218</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="M6" t="n">
-        <v>444103.0819857064</v>
+        <v>444068.3440602707</v>
       </c>
       <c r="N6" t="n">
-        <v>529158.109921218</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="O6" t="n">
-        <v>529158.1099212179</v>
+        <v>529123.3719957826</v>
       </c>
       <c r="P6" t="n">
-        <v>529158.109921218</v>
+        <v>529123.3719957827</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,43 +26960,43 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758553</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>194.8187766984401</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.2405540543092</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.38861029128302</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>259.6421064805531</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>179.7382603152888</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>146.4691097060107</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047089</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28.18920568038334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.3027978282313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34.20913079139254</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,7 +33980,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
